--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.3148247539971111</v>
+        <v>0.009167063350000001</v>
       </c>
       <c r="R2">
-        <v>2.833422785974</v>
+        <v>0.08250357015000001</v>
       </c>
       <c r="S2">
-        <v>0.006627569075206657</v>
+        <v>0.0002341775857104522</v>
       </c>
       <c r="T2">
-        <v>0.00662756907520666</v>
+        <v>0.0002341775857104522</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>1.205075443072667</v>
+        <v>0.3052006882516667</v>
       </c>
       <c r="R3">
-        <v>10.845678987654</v>
+        <v>2.746806194265</v>
       </c>
       <c r="S3">
-        <v>0.02536878259538846</v>
+        <v>0.007796516463687757</v>
       </c>
       <c r="T3">
-        <v>0.02536878259538847</v>
+        <v>0.00779651646368776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.1245583232377778</v>
+        <v>0.023831909685</v>
       </c>
       <c r="R4">
-        <v>1.12102490914</v>
+        <v>0.214487187165</v>
       </c>
       <c r="S4">
-        <v>0.002622153692393153</v>
+        <v>0.0006087990079072425</v>
       </c>
       <c r="T4">
-        <v>0.002622153692393154</v>
+        <v>0.0006087990079072426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>7.464734313072666</v>
+        <v>0.8582314842600001</v>
       </c>
       <c r="R5">
-        <v>67.182608817654</v>
+        <v>7.724083358340001</v>
       </c>
       <c r="S5">
-        <v>0.1571447024410551</v>
+        <v>0.02192398691830844</v>
       </c>
       <c r="T5">
-        <v>0.1571447024410552</v>
+        <v>0.02192398691830845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
-        <v>28.57325510632599</v>
+        <v>28.573255106326</v>
       </c>
       <c r="R6">
-        <v>257.1592959569339</v>
+        <v>257.159295956934</v>
       </c>
       <c r="S6">
-        <v>0.6015131260053794</v>
+        <v>0.7299192381700156</v>
       </c>
       <c r="T6">
-        <v>0.6015131260053795</v>
+        <v>0.7299192381700158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>2.953372559326667</v>
+        <v>2.231172016686001</v>
       </c>
       <c r="R7">
-        <v>26.58035303394</v>
+        <v>20.080548150174</v>
       </c>
       <c r="S7">
-        <v>0.06217325795778107</v>
+        <v>0.05699649453957883</v>
       </c>
       <c r="T7">
-        <v>0.06217325795778109</v>
+        <v>0.05699649453957884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N8">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O8">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P8">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q8">
-        <v>1.314558391094667</v>
+        <v>0.19366641178</v>
       </c>
       <c r="R8">
-        <v>11.831025519852</v>
+        <v>1.74299770602</v>
       </c>
       <c r="S8">
-        <v>0.02767357531375178</v>
+        <v>0.004947313115693335</v>
       </c>
       <c r="T8">
-        <v>0.02767357531375179</v>
+        <v>0.004947313115693335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.864751</v>
       </c>
       <c r="N9">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O9">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P9">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q9">
-        <v>5.031821721388</v>
+        <v>6.447770666544668</v>
       </c>
       <c r="R9">
-        <v>45.286395492492</v>
+        <v>58.029935998902</v>
       </c>
       <c r="S9">
-        <v>0.1059279666202177</v>
+        <v>0.1647117850348556</v>
       </c>
       <c r="T9">
-        <v>0.1059279666202177</v>
+        <v>0.1647117850348556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N10">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O10">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P10">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q10">
-        <v>0.5200962977466667</v>
+        <v>0.5034808049580001</v>
       </c>
       <c r="R10">
-        <v>4.68086667972</v>
+        <v>4.531327244622</v>
       </c>
       <c r="S10">
-        <v>0.0109488662988264</v>
+        <v>0.0128616891642425</v>
       </c>
       <c r="T10">
-        <v>0.0109488662988264</v>
+        <v>0.0128616891642425</v>
       </c>
     </row>
   </sheetData>
